--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Logga ut funktion</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1221,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,8 +1338,8 @@
         <v>16</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="50" t="s">
-        <v>57</v>
+      <c r="F7" s="61" t="s">
+        <v>99</v>
       </c>
       <c r="G7" s="27"/>
     </row>
@@ -1352,8 +1355,8 @@
         <v>5</v>
       </c>
       <c r="E8" s="67"/>
-      <c r="F8" s="67" t="s">
-        <v>57</v>
+      <c r="F8" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>63</v>
@@ -1371,8 +1374,8 @@
         <v>5</v>
       </c>
       <c r="E9" s="67"/>
-      <c r="F9" s="67" t="s">
-        <v>57</v>
+      <c r="F9" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>64</v>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maja\Desktop\ProjectPetra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\ProjectPetra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>Logga ut funktion</t>
+  </si>
+  <si>
+    <t>RoleAdmin/admin tabeller</t>
+  </si>
+  <si>
+    <t>Tabellerna måste göras responsiva</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1963,9 +1969,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2020,6 +2026,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>Tabellerna måste göras responsiva</t>
+  </si>
+  <si>
+    <t>Säkra upp web api:erna</t>
+  </si>
+  <si>
+    <t>Läggas Authorize attribut på api:erna</t>
   </si>
 </sst>
 </file>
@@ -1969,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,6 +2043,17 @@
         <v>100</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>Läggas Authorize attribut på api:erna</t>
+  </si>
+  <si>
+    <t>Fixa Admin navigeringen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Att admin knapparna syns när man är inne på admin sidorna. </t>
+  </si>
+  <si>
+    <t>Style Log ut länkarna</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -1229,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,8 +1359,8 @@
         <v>16</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="50" t="s">
-        <v>57</v>
+      <c r="F7" s="61" t="s">
+        <v>106</v>
       </c>
       <c r="G7" s="27"/>
     </row>
@@ -1364,8 +1376,8 @@
         <v>5</v>
       </c>
       <c r="E8" s="67"/>
-      <c r="F8" s="67" t="s">
-        <v>57</v>
+      <c r="F8" s="51" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>63</v>
@@ -1402,8 +1414,8 @@
         <v>6</v>
       </c>
       <c r="E10" s="67"/>
-      <c r="F10" s="67" t="s">
-        <v>57</v>
+      <c r="F10" s="51" t="s">
+        <v>106</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>65</v>
@@ -1975,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,6 +2066,25 @@
         <v>102</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -346,7 +346,10 @@
     <t>Style Log ut länkarna</t>
   </si>
   <si>
-    <t>Ongoing</t>
+    <t>Kontrollera browser kompabilitet</t>
+  </si>
+  <si>
+    <t>Se till att all css och responsibilitet fungerar på alla browsers</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1245,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1363,7 @@
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="61" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="G7" s="27"/>
     </row>
@@ -1395,8 +1398,8 @@
         <v>5</v>
       </c>
       <c r="E9" s="67"/>
-      <c r="F9" s="67" t="s">
-        <v>57</v>
+      <c r="F9" s="51" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>64</v>
@@ -1415,7 +1418,7 @@
       </c>
       <c r="E10" s="67"/>
       <c r="F10" s="51" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>65</v>
@@ -1987,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2085,6 +2088,17 @@
         <v>105</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Se till att all css och responsibilitet fungerar på alla browsers</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -1244,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,8 +1439,8 @@
         <v>56</v>
       </c>
       <c r="E11" s="52"/>
-      <c r="F11" s="52" t="s">
-        <v>57</v>
+      <c r="F11" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="G11" s="72"/>
     </row>
@@ -1453,8 +1456,8 @@
         <v>16</v>
       </c>
       <c r="E12" s="68"/>
-      <c r="F12" s="68" t="s">
-        <v>57</v>
+      <c r="F12" s="53" t="s">
+        <v>108</v>
       </c>
       <c r="G12" s="73" t="s">
         <v>91</v>
@@ -1993,7 +1996,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\ProjectPetra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maja\Desktop\ProjectPetra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="53" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="G12" s="73" t="s">
         <v>91</v>
@@ -1475,8 +1475,8 @@
         <v>8</v>
       </c>
       <c r="E13" s="68"/>
-      <c r="F13" s="68" t="s">
-        <v>57</v>
+      <c r="F13" s="53" t="s">
+        <v>48</v>
       </c>
       <c r="G13" s="73" t="s">
         <v>97</v>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="53" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G14" s="73" t="s">
         <v>92</v>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maja\Desktop\ProjectPetra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\ProjectPetra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Ändra ta bort todo $index till id istället</t>
+  </si>
+  <si>
+    <t>Fungerar inte att använda $Index när man har ett filter på listan</t>
   </si>
 </sst>
 </file>
@@ -1247,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1463,7 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="53" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="G12" s="73" t="s">
         <v>91</v>
@@ -1475,8 +1481,8 @@
         <v>8</v>
       </c>
       <c r="E13" s="68"/>
-      <c r="F13" s="53" t="s">
-        <v>48</v>
+      <c r="F13" s="68" t="s">
+        <v>57</v>
       </c>
       <c r="G13" s="73" t="s">
         <v>97</v>
@@ -1495,7 +1501,7 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="53" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G14" s="73" t="s">
         <v>92</v>
@@ -1993,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,6 +2108,17 @@
         <v>107</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\ProjectPetra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maja\Desktop\ProjectPetra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Säkra upp web api:erna</t>
   </si>
   <si>
-    <t>Läggas Authorize attribut på api:erna</t>
-  </si>
-  <si>
     <t>Fixa Admin navigeringen</t>
   </si>
   <si>
@@ -359,6 +356,12 @@
   </si>
   <si>
     <t>Fungerar inte att använda $Index när man har ett filter på listan</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Fixa att man bara kommer in om man har en roll.</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1257,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1449,7 @@
       </c>
       <c r="E11" s="52"/>
       <c r="F11" s="62" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="G11" s="72"/>
     </row>
@@ -1463,7 +1466,7 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="53" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="G12" s="73" t="s">
         <v>91</v>
@@ -1481,8 +1484,8 @@
         <v>8</v>
       </c>
       <c r="E13" s="68"/>
-      <c r="F13" s="68" t="s">
-        <v>57</v>
+      <c r="F13" s="53" t="s">
+        <v>48</v>
       </c>
       <c r="G13" s="73" t="s">
         <v>97</v>
@@ -1501,7 +1504,7 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="53" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G14" s="73" t="s">
         <v>92</v>
@@ -1520,7 +1523,7 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="53" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G15" s="73" t="s">
         <v>93</v>
@@ -1539,7 +1542,7 @@
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="69" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="G16" s="29"/>
     </row>
@@ -1556,7 +1559,7 @@
       </c>
       <c r="E17" s="63"/>
       <c r="F17" s="55" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>91</v>
@@ -1575,7 +1578,7 @@
       </c>
       <c r="E18" s="63"/>
       <c r="F18" s="55" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G18" s="77" t="s">
         <v>96</v>
@@ -1594,7 +1597,7 @@
       </c>
       <c r="E19" s="63"/>
       <c r="F19" s="55" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>92</v>
@@ -1613,7 +1616,7 @@
       </c>
       <c r="E20" s="63"/>
       <c r="F20" s="55" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>93</v>
@@ -1999,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2015,7 @@
     <col min="3" max="3" width="116.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>50</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2044,8 +2047,11 @@
       <c r="C3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2067,7 +2073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2075,47 +2081,50 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
         <v>103</v>
       </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
         <v>109</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>110</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -337,9 +337,6 @@
     <t>Fixa Admin navigeringen</t>
   </si>
   <si>
-    <t xml:space="preserve">Att admin knapparna syns när man är inne på admin sidorna. </t>
-  </si>
-  <si>
     <t>Style Log ut länkarna</t>
   </si>
   <si>
@@ -362,6 +359,15 @@
   </si>
   <si>
     <t>Fixa att man bara kommer in om man har en roll.</t>
+  </si>
+  <si>
+    <t>Fixa dialog rutan när man ska lägga till Subitem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Förfyttar sig ibland. </t>
+  </si>
+  <si>
+    <t>Att admin knapparna syns när man är inne på admin sidorna.  Kolla Angular UI bootrstap.</t>
   </si>
 </sst>
 </file>
@@ -412,15 +418,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,8 +552,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -715,8 +725,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -734,8 +759,9 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -760,7 +786,6 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
@@ -814,8 +839,10 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="16" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="14" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="14" xfId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="11" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="20% - Dekorfärg1" xfId="12" builtinId="30"/>
     <cellStyle name="20% - Dekorfärg2" xfId="13" builtinId="34"/>
     <cellStyle name="20% - Dekorfärg3" xfId="14" builtinId="38"/>
@@ -832,6 +859,7 @@
     <cellStyle name="Dekorfärg3" xfId="5" builtinId="37"/>
     <cellStyle name="Dekorfärg4" xfId="7" builtinId="41"/>
     <cellStyle name="Dekorfärg6" xfId="9" builtinId="49"/>
+    <cellStyle name="Neutral" xfId="17" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,532 +1307,532 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="49">
+      <c r="A4" s="35"/>
+      <c r="B4" s="48">
         <v>1</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <v>16</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="48">
         <v>1</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="49">
+      <c r="A5" s="35"/>
+      <c r="B5" s="48">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>32</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="48">
         <v>1</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="49">
+      <c r="A6" s="35"/>
+      <c r="B6" s="48">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <v>16</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <v>1</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="50">
+      <c r="A7" s="36"/>
+      <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <v>16</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="66">
         <v>5</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="51" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="66">
         <v>5</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="51" t="s">
+      <c r="E9" s="66"/>
+      <c r="F9" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="66">
         <v>6</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="51" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="52">
+      <c r="A11" s="38"/>
+      <c r="B11" s="51">
         <v>5</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="51">
         <v>56</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="62" t="s">
+      <c r="E11" s="51"/>
+      <c r="F11" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="67">
         <v>16</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="53" t="s">
+      <c r="E12" s="67"/>
+      <c r="F12" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="72" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="67">
         <v>8</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="67"/>
+      <c r="F13" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="72" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="67">
         <v>16</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="53" t="s">
+      <c r="E14" s="67"/>
+      <c r="F14" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="72" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="67">
         <v>16</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="53" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="72" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="54">
+      <c r="A16" s="40"/>
+      <c r="B16" s="53">
         <v>6</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="53">
         <v>22</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="29"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="62">
         <v>4</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="55" t="s">
+      <c r="E17" s="62"/>
+      <c r="F17" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="62">
         <v>2</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="55" t="s">
+      <c r="E18" s="62"/>
+      <c r="F18" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="76" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="62">
         <v>8</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="55" t="s">
+      <c r="E19" s="62"/>
+      <c r="F19" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="62">
         <v>8</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="30" t="s">
+      <c r="E20" s="62"/>
+      <c r="F20" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="56">
+      <c r="A21" s="42"/>
+      <c r="B21" s="55">
         <v>7</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="55">
         <v>22</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="70" t="s">
+      <c r="E21" s="55"/>
+      <c r="F21" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="63">
         <v>4</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="57" t="s">
+      <c r="E22" s="63"/>
+      <c r="F22" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="63">
         <v>2</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="57" t="s">
+      <c r="E23" s="63"/>
+      <c r="F23" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="76" t="s">
+      <c r="G23" s="75" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="63">
         <v>8</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="57" t="s">
+      <c r="E24" s="63"/>
+      <c r="F24" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="57" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="63">
         <v>8</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="57" t="s">
+      <c r="E25" s="63"/>
+      <c r="F25" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="58">
+      <c r="A26" s="44"/>
+      <c r="B26" s="57">
         <v>8</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="57">
         <v>26</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="71" t="s">
+      <c r="E26" s="57"/>
+      <c r="F26" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="33"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="59" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="64">
         <v>8</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="59" t="s">
+      <c r="E27" s="64"/>
+      <c r="F27" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="59" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="64">
         <v>2</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="59" t="s">
+      <c r="E28" s="64"/>
+      <c r="F28" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="75" t="s">
+      <c r="G28" s="74" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="59" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="64">
         <v>8</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="59" t="s">
+      <c r="E29" s="64"/>
+      <c r="F29" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="60" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="65">
         <v>8</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="60" t="s">
+      <c r="E30" s="65"/>
+      <c r="F30" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="74" t="s">
+      <c r="G30" s="73" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2002,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,117 +2044,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="77" t="s">
         <v>27</v>
       </c>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="77">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="77" t="s">
         <v>52</v>
       </c>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="78">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="77">
+        <v>3</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="77"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="77">
+        <v>4</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="77"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="77">
+        <v>5</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="77"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="77">
+        <v>6</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="77"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="77">
+        <v>7</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="77">
+        <v>8</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="77"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="78">
+        <v>9</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="77">
+        <v>10</v>
+      </c>
+      <c r="B11" s="77" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
+      <c r="C11" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Se planering för 1-2mån framåt</t>
-  </si>
-  <si>
-    <t>Backlog items</t>
   </si>
   <si>
     <t>Item number</t>
@@ -374,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,14 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -558,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -636,43 +625,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -759,9 +711,9 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -785,7 +737,6 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
@@ -799,48 +750,35 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="13" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="12" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="8" xfId="14" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="8" xfId="16" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="16" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="16" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="14" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="11" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="12" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="11" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="13" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="10" xfId="16" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="16" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="14" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="14" xfId="17" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="11" xfId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="11" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="20% - Dekorfärg1" xfId="12" builtinId="30"/>
@@ -866,6 +804,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9966"/>
       <color rgb="FFB17ED8"/>
       <color rgb="FFFDBCB1"/>
       <color rgb="FFFF5D5D"/>
@@ -1282,558 +1221,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="83.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="83.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="34">
+        <v>16</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <v>2</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="34">
+        <v>32</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>3</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="34">
+        <v>16</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>4</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="48">
-        <v>1</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="48">
+      <c r="C7" s="35">
         <v>16</v>
       </c>
-      <c r="E4" s="48">
-        <v>1</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="48">
+      <c r="D7" s="35"/>
+      <c r="E7" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="52">
+        <v>5</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="52">
+        <v>5</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="52">
+        <v>6</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>5</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="37">
+        <v>56</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="53">
+        <v>16</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="53">
+        <v>8</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="53">
+        <v>16</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="53">
+        <v>16</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>6</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="39">
+        <v>22</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="48">
+        <v>4</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="48">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="48">
-        <v>32</v>
-      </c>
-      <c r="E5" s="48">
-        <v>1</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="48">
-        <v>3</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="48">
-        <v>16</v>
-      </c>
-      <c r="E6" s="48">
-        <v>1</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="49">
+      <c r="F18" s="62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="48">
+        <v>8</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="48">
+        <v>8</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="41">
+        <v>7</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="41">
+        <v>22</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="49">
-        <v>16</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="66">
-        <v>5</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="66">
-        <v>5</v>
-      </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="66">
-        <v>6</v>
-      </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="51">
-        <v>5</v>
-      </c>
-      <c r="C11" s="61" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="49">
+        <v>2</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="49">
+        <v>8</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="49">
+        <v>8</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="43">
+        <v>8</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="43">
+        <v>26</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="51">
+      <c r="C27" s="50">
+        <v>8</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="71"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="52" t="s">
+      <c r="F27" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="67">
-        <v>16</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="72" t="s">
+      <c r="C28" s="50">
+        <v>2</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="50">
+        <v>8</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="67">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="51">
         <v>8</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="67">
-        <v>16</v>
-      </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="72" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="59" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="67">
-        <v>16</v>
-      </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="53">
-        <v>6</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="53">
-        <v>22</v>
-      </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="62">
-        <v>4</v>
-      </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="62">
-        <v>2</v>
-      </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="62">
-        <v>8</v>
-      </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="62">
-        <v>8</v>
-      </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="55">
-        <v>7</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="55">
-        <v>22</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="63">
-        <v>4</v>
-      </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="63">
-        <v>2</v>
-      </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="63">
-        <v>8</v>
-      </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="63">
-        <v>8</v>
-      </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="57">
-        <v>8</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="57">
-        <v>26</v>
-      </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="64">
-        <v>8</v>
-      </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="64">
-        <v>2</v>
-      </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="64">
-        <v>8</v>
-      </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="65">
-        <v>8</v>
-      </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="73" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2032,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2044,138 +1949,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="63"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="77">
-        <v>1</v>
-      </c>
-      <c r="B2" s="77" t="s">
+      <c r="C2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="D2" s="63"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="64">
+        <v>2</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="77"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>2</v>
-      </c>
-      <c r="B3" s="78" t="s">
+      <c r="C3" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="D3" s="64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="C4" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="63"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="63"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="63">
+        <v>5</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="77">
-        <v>3</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="77"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="77">
-        <v>4</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="77"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="77">
-        <v>5</v>
-      </c>
-      <c r="B6" s="77" t="s">
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="63">
+        <v>6</v>
+      </c>
+      <c r="B7" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C7" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="63">
+        <v>7</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="63">
+        <v>8</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="63"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="64">
+        <v>9</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="63">
+        <v>10</v>
+      </c>
+      <c r="B11" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="77"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
-        <v>6</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="77"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
-        <v>7</v>
-      </c>
-      <c r="B8" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
-        <v>8</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="77"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
-        <v>9</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
-        <v>10</v>
-      </c>
-      <c r="B11" s="77" t="s">
+      <c r="C11" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="77"/>
+      <c r="D11" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Se till att all css och responsibilitet fungerar på alla browsers</t>
   </si>
   <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
     <t>Ändra ta bort todo $index till id istället</t>
   </si>
   <si>
@@ -365,6 +362,12 @@
   </si>
   <si>
     <t>Att admin knapparna syns när man är inne på admin sidorna.  Kolla Angular UI bootrstap.</t>
+  </si>
+  <si>
+    <t>Fixa så att de nuvarande datumen syns</t>
+  </si>
+  <si>
+    <t>På edit, add och fälten deadline, startdate och enddata</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +547,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -713,7 +728,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -779,6 +794,8 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="11" xfId="17" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="11" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="17" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="20% - Dekorfärg1" xfId="12" builtinId="30"/>
@@ -1223,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1594,7 @@
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="55" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F21" s="29"/>
     </row>
@@ -1647,7 +1664,7 @@
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="42" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>92</v>
@@ -1935,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,7 +2000,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2018,7 +2035,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="63"/>
     </row>
@@ -2030,19 +2047,21 @@
         <v>101</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="63"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
+      <c r="A8" s="66">
         <v>7</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="63">
@@ -2061,26 +2080,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="D10" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="63">
+      <c r="A11" s="65">
+        <v>11</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="65"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="63">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B12" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="63"/>
+      <c r="D12" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maja\Desktop\ProjectPetra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\ProjectPetra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>På edit, add och fälten deadline, startdate och enddata</t>
+  </si>
+  <si>
+    <t>Browser kompabilitet [input=date]</t>
+  </si>
+  <si>
+    <t>Hitta en annan lösning för val av datum</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -796,6 +802,7 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="11" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="17" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="20% - Dekorfärg1" xfId="12" builtinId="30"/>
@@ -1240,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1952,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,6 +2120,18 @@
       </c>
       <c r="D12" s="63"/>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="67">
+        <v>12</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="67"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="119">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -368,6 +368,21 @@
   </si>
   <si>
     <t>På edit, add och fälten deadline, startdate och enddata</t>
+  </si>
+  <si>
+    <t>Assigna ToDo</t>
+  </si>
+  <si>
+    <t>Uppdatera Databas</t>
+  </si>
+  <si>
+    <t>Lägga till tabell för relation mellan ToDo och User</t>
+  </si>
+  <si>
+    <t>Skappa web.api för konsumtion av tjänster till tabellen Assign</t>
+  </si>
+  <si>
+    <t>Skapa en dropdown lista man kan söka i, lista de man lagt till plus design</t>
   </si>
 </sst>
 </file>
@@ -417,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,14 +566,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -708,7 +717,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -727,8 +736,9 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -794,10 +804,12 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="11" xfId="17" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="17" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="8" xfId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="20% - Dekorfärg1" xfId="12" builtinId="30"/>
     <cellStyle name="20% - Dekorfärg2" xfId="13" builtinId="34"/>
     <cellStyle name="20% - Dekorfärg3" xfId="14" builtinId="38"/>
@@ -808,6 +820,7 @@
     <cellStyle name="40% - Dekorfärg3" xfId="6" builtinId="39"/>
     <cellStyle name="40% - Dekorfärg4" xfId="8" builtinId="43"/>
     <cellStyle name="40% - Dekorfärg6" xfId="10" builtinId="51"/>
+    <cellStyle name="60% - Dekorfärg2" xfId="18" builtinId="36"/>
     <cellStyle name="Bra" xfId="11" builtinId="26"/>
     <cellStyle name="Dekorfärg1" xfId="1" builtinId="29"/>
     <cellStyle name="Dekorfärg2" xfId="3" builtinId="33"/>
@@ -1238,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F30"/>
+  <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1573,7 @@
       <c r="E19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="62" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1671,90 +1684,168 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="67">
+        <v>44</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="68"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="65">
         <v>8</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="65">
+        <v>4</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="65">
+        <v>16</v>
+      </c>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="65">
+        <v>16</v>
+      </c>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>8</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C31" s="43">
         <v>26</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="56" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B32" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C32" s="50">
         <v>8</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="44" t="s">
+      <c r="D32" s="50"/>
+      <c r="E32" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F32" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B33" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C33" s="50">
         <v>2</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="44" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F33" s="60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B34" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C34" s="50">
         <v>8</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="44" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F34" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B35" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C35" s="51">
         <v>8</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="45" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F35" s="59" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1954,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,14 +2143,14 @@
       <c r="D7" s="63"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+      <c r="A8" s="64">
         <v>7</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2090,16 +2181,16 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+      <c r="A11" s="63">
         <v>11</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="63">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\ProjectPetra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maja\Documents\GitHub\ProjectPetra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -374,6 +374,39 @@
   </si>
   <si>
     <t>Hitta en annan lösning för val av datum</t>
+  </si>
+  <si>
+    <t>Tilldela en ToDo</t>
+  </si>
+  <si>
+    <t>Updatera databasen</t>
+  </si>
+  <si>
+    <t>Skapa ett web.api för Assigna</t>
+  </si>
+  <si>
+    <t>Lägga till funktion för att tilldela någon en Todo</t>
+  </si>
+  <si>
+    <t>Skapa en dropdown där man kan söka, en lista där de läggs i plus Design</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Lägga till en Assign Tabell</t>
   </si>
 </sst>
 </file>
@@ -423,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +598,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -714,7 +753,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -733,8 +772,9 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -803,8 +843,12 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="11" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="17" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="8" xfId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="6" xfId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="20% - Dekorfärg1" xfId="12" builtinId="30"/>
     <cellStyle name="20% - Dekorfärg2" xfId="13" builtinId="34"/>
     <cellStyle name="20% - Dekorfärg3" xfId="14" builtinId="38"/>
@@ -815,6 +859,7 @@
     <cellStyle name="40% - Dekorfärg3" xfId="6" builtinId="39"/>
     <cellStyle name="40% - Dekorfärg4" xfId="8" builtinId="43"/>
     <cellStyle name="40% - Dekorfärg6" xfId="10" builtinId="51"/>
+    <cellStyle name="60% - Dekorfärg2" xfId="18" builtinId="36"/>
     <cellStyle name="Bra" xfId="11" builtinId="26"/>
     <cellStyle name="Dekorfärg1" xfId="1" builtinId="29"/>
     <cellStyle name="Dekorfärg2" xfId="3" builtinId="33"/>
@@ -1245,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F30"/>
+  <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,90 +1723,178 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+      <c r="A26" s="70">
         <v>8</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="70">
+        <v>46</v>
+      </c>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="71"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="68">
+        <v>10</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="68">
+        <v>4</v>
+      </c>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="68">
+        <v>16</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="68">
+        <v>16</v>
+      </c>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>9</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C31" s="43">
         <v>26</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="56" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="50" t="s">
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C32" s="50">
         <v>8</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="44" t="s">
+      <c r="D32" s="50"/>
+      <c r="E32" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F32" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="50" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C33" s="50">
         <v>2</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="44" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F33" s="60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="50" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C34" s="50">
         <v>8</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="44" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F34" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="51" t="s">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C35" s="51">
         <v>8</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="45" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F35" s="59" t="s">
         <v>92</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maja\Documents\GitHub\ProjectPetra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\ProjectPetra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1293,7 +1293,7 @@
   <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="68" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="F28" s="69" t="s">
         <v>118</v>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\ProjectPetra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maja\Desktop\ProjectPetra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="127">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -456,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,18 +586,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -772,9 +760,9 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -840,11 +828,8 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="11" xfId="17" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="8" xfId="18" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="6" xfId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="8" xfId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="18" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
   </cellXfs>
@@ -1293,7 +1278,7 @@
   <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,90 +1708,90 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="70">
+      <c r="A26" s="67">
         <v>8</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="67">
         <v>46</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70" t="s">
+      <c r="D26" s="67"/>
+      <c r="E26" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="71"/>
+      <c r="F26" s="68"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="65">
         <v>10</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="65">
+        <v>4</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="65">
+        <v>16</v>
+      </c>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="65">
+        <v>16</v>
+      </c>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="68">
-        <v>4</v>
-      </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="68">
-        <v>16</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="68">
-        <v>16</v>
-      </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="66" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2095,7 +2080,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,14 +2177,14 @@
       <c r="D7" s="63"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+      <c r="A8" s="64">
         <v>7</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2230,16 +2215,18 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+      <c r="A11" s="64">
         <v>11</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="64" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="63">
@@ -2254,16 +2241,16 @@
       <c r="D12" s="63"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
+      <c r="A13" s="63">
         <v>12</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="D26" s="67"/>
       <c r="E26" s="67" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="F26" s="68"/>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D30" s="65"/>
       <c r="E30" s="65" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="F30" s="66" t="s">
         <v>120</v>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="56" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="F31" s="31"/>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -407,6 +407,36 @@
   </si>
   <si>
     <t>Lägga till en Assign Tabell</t>
+  </si>
+  <si>
+    <t>Kommentera</t>
+  </si>
+  <si>
+    <t>Uppdatera databasen med en Comments tabell och dess relationer</t>
+  </si>
+  <si>
+    <t>Ett Web.api för Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skapa funktioner för att kunna skriva kommentera, se kommentaren och vem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skapa layouten på Tidslinjen. </t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
   </si>
 </sst>
 </file>
@@ -456,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,8 +624,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -656,76 +692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -740,8 +706,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -761,8 +758,9 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -786,54 +784,49 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="17" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="6" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="12" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="6" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="18" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="6" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="16" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="16" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="8" xfId="14" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="8" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="10" xfId="16" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="16" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="11" xfId="17" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="8" xfId="18" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="18" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="20% - Dekorfärg1" xfId="12" builtinId="30"/>
     <cellStyle name="20% - Dekorfärg2" xfId="13" builtinId="34"/>
     <cellStyle name="20% - Dekorfärg3" xfId="14" builtinId="38"/>
@@ -844,6 +837,7 @@
     <cellStyle name="40% - Dekorfärg3" xfId="6" builtinId="39"/>
     <cellStyle name="40% - Dekorfärg4" xfId="8" builtinId="43"/>
     <cellStyle name="40% - Dekorfärg6" xfId="10" builtinId="51"/>
+    <cellStyle name="60% - Dekorfärg1" xfId="19" builtinId="32"/>
     <cellStyle name="60% - Dekorfärg2" xfId="18" builtinId="36"/>
     <cellStyle name="Bra" xfId="11" builtinId="26"/>
     <cellStyle name="Dekorfärg1" xfId="1" builtinId="29"/>
@@ -1275,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F35"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,593 +1288,679 @@
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="29">
         <v>16</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="29">
         <v>1</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="29">
         <v>32</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="29">
         <v>1</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="51">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="29">
         <v>16</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="29">
         <v>1</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="52">
         <v>4</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="3">
         <v>16</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="25"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="48">
         <v>5</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="48">
         <v>5</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="26" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="48">
         <v>6</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="26" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="54">
         <v>5</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="1">
         <v>56</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="57"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="49">
         <v>16</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="58" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="49">
         <v>8</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="58" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="49">
         <v>16</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="58" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="49">
         <v>16</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="58" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="56">
         <v>6</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="14">
         <v>22</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="27"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="33">
         <v>4</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="33">
         <v>2</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="62" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="33">
         <v>8</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="28" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="33">
         <v>8</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="28" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="58">
         <v>7</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="5">
         <v>22</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="29"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="35">
         <v>4</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="30" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="35">
         <v>2</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="61" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="35">
         <v>8</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="30" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="35">
         <v>8</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="30" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
+      <c r="A26" s="60">
         <v>8</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="37">
         <v>46</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="68"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="38">
         <v>10</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="66" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="38">
         <v>4</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="66" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="38">
         <v>16</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="66" t="s">
+      <c r="D29" s="38"/>
+      <c r="E29" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="38">
         <v>16</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="66" t="s">
+      <c r="D30" s="38"/>
+      <c r="E30" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="62">
         <v>9</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="7">
         <v>26</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="56" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="39">
         <v>8</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="44" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="39">
         <v>2</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="44" t="s">
+      <c r="D33" s="39"/>
+      <c r="E33" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="40" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="39">
         <v>8</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="44" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="39">
         <v>8</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="45" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="39" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="41">
+        <v>42</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="41"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="42">
+        <v>8</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="42">
+        <v>2</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="42">
+        <v>16</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="43">
+        <v>16</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2091,166 +2171,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="63"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="63">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="64">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="63">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="63">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="63">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="64">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="63">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="64">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="64">
+      <c r="A11" s="24">
         <v>11</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="63">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="63">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="156">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -403,9 +403,6 @@
     <t>9.4</t>
   </si>
   <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
     <t>Lägga till en Assign Tabell</t>
   </si>
   <si>
@@ -437,13 +434,73 @@
   </si>
   <si>
     <t>10.4</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>Lägga till en board tabell</t>
+  </si>
+  <si>
+    <t>Ett Web.api för Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skapa funktioner för att kunna filtera och spara ner boards.  Tex för ett visst projekt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lägga till layout för att kunna fltera, söka och spara. </t>
+  </si>
+  <si>
+    <t>Felkontroller</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>Fixa åtgärder</t>
+  </si>
+  <si>
+    <t>Code review</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>Granska koden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se om där är några åtgärdet som behövs fixa (finns i backlogen) </t>
+  </si>
+  <si>
+    <t>Skapa/Spara StoryBoards</t>
+  </si>
+  <si>
+    <t>Uppdatera tabeller med Deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolla igenom alla tabeller och lägga till en Deleted fält på de som kräver det. </t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,8 +542,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,8 +694,37 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -707,10 +800,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -719,18 +858,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -738,7 +868,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -759,8 +889,9 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -786,9 +917,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="17" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="6" xfId="19" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="19" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="13" applyFont="1" applyBorder="1"/>
@@ -804,29 +932,56 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="16" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="19" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="19" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="13" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="18" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="6" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="7" xfId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="5" xfId="20" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
     <cellStyle name="20% - Dekorfärg1" xfId="12" builtinId="30"/>
     <cellStyle name="20% - Dekorfärg2" xfId="13" builtinId="34"/>
     <cellStyle name="20% - Dekorfärg3" xfId="14" builtinId="38"/>
@@ -845,6 +1000,7 @@
     <cellStyle name="Dekorfärg3" xfId="5" builtinId="37"/>
     <cellStyle name="Dekorfärg4" xfId="7" builtinId="41"/>
     <cellStyle name="Dekorfärg6" xfId="9" builtinId="49"/>
+    <cellStyle name="Dåligt" xfId="20" builtinId="27"/>
     <cellStyle name="Neutral" xfId="17" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -852,6 +1008,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6699"/>
+      <color rgb="FFFF0066"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFB17ED8"/>
       <color rgb="FFFDBCB1"/>
@@ -1269,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,333 +1446,333 @@
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="59">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="26">
         <v>16</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="59">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="26">
         <v>32</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="59">
         <v>3</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="26">
         <v>16</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="26">
         <v>1</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
+      <c r="A7" s="60">
         <v>4</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="3">
         <v>16</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="44">
         <v>5</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="30" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="44">
         <v>5</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="44">
         <v>6</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="30" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="62">
         <v>5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="54" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="1">
         <v>56</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="31"/>
+      <c r="E11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="45">
         <v>16</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="32" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="45">
         <v>8</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="32" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="45">
         <v>16</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="32" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="45">
         <v>16</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="64">
         <v>6</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="56" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="14">
         <v>22</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="41" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="30">
         <v>4</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="33" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <v>2</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="34" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="30">
         <v>8</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="33" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="47">
         <v>8</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="33" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="67" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
+      <c r="A21" s="5">
         <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1624,173 +1782,173 @@
         <v>22</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="5"/>
+      <c r="E21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="32">
         <v>4</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="35" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="69" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="32">
         <v>2</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="36" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="79" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="32">
         <v>8</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="35" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="69" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="32">
         <v>8</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="35" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="69" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="60">
+      <c r="A26" s="34">
         <v>8</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="34">
         <v>46</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="37"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="70"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="35">
         <v>10</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>126</v>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="35">
         <v>4</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="38" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="71" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="35">
         <v>16</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="38" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="71" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="35">
         <v>16</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="38" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="71" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="62">
+      <c r="A31" s="7">
         <v>9</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1800,167 +1958,307 @@
         <v>26</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="7"/>
+      <c r="E31" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="72"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="36">
         <v>8</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40" t="s">
+      <c r="D32" s="36"/>
+      <c r="E32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="36">
+        <v>2</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="36">
+        <v>8</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="36">
+        <v>8</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="38">
+        <v>42</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="74"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="39">
+        <v>8</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="39">
+        <v>2</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="39">
+        <v>16</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="75" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="39">
+        <v>16</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="76">
+        <v>11</v>
+      </c>
+      <c r="B41" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="76">
+        <v>40</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="39" t="s">
+      <c r="F41" s="49"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="77">
+        <v>4</v>
+      </c>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="39">
-        <v>2</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40" t="s">
+      <c r="C43" s="77">
+        <v>4</v>
+      </c>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="39" t="s">
+      <c r="F43" s="46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C44" s="77">
+        <v>16</v>
+      </c>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="77">
+        <v>16</v>
+      </c>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="81">
+        <v>12</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="81">
+        <v>16</v>
+      </c>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="82"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="83">
         <v>8</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40" t="s">
+      <c r="D47" s="83"/>
+      <c r="E47" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="39">
+      <c r="F47" s="84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="85">
         <v>8</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40" t="s">
+      <c r="D48" s="85"/>
+      <c r="E48" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="41">
-        <v>42</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="41"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="42">
-        <v>8</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="42">
-        <v>2</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="42">
-        <v>16</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="43">
-        <v>16</v>
-      </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>132</v>
+      <c r="F48" s="86" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2157,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2490,9 @@
       <c r="C2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
@@ -2218,7 +2518,9 @@
       <c r="C4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
@@ -2230,19 +2532,23 @@
       <c r="C5" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
@@ -2254,7 +2560,9 @@
       <c r="C7" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
@@ -2278,7 +2586,9 @@
       <c r="C9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
@@ -2309,28 +2619,46 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="87">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="87" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="87">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <t>Raden där kolumnernas namn står har inte grå hela längan.</t>
   </si>
   <si>
-    <t>Todo</t>
-  </si>
-  <si>
     <t>Layout</t>
   </si>
   <si>
@@ -494,6 +491,9 @@
   </si>
   <si>
     <t>TODO</t>
+  </si>
+  <si>
+    <t>ongoing</t>
   </si>
 </sst>
 </file>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1453,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>38</v>
@@ -1530,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="3">
         <v>16</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="44">
         <v>5</v>
@@ -1556,15 +1556,15 @@
         <v>47</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="44">
         <v>5</v>
@@ -1574,15 +1574,15 @@
         <v>47</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="44">
         <v>6</v>
@@ -1592,7 +1592,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1">
         <v>56</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="45">
         <v>16</v>
@@ -1626,15 +1626,15 @@
         <v>47</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="45">
         <v>8</v>
@@ -1644,15 +1644,15 @@
         <v>47</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="45">
         <v>16</v>
@@ -1662,15 +1662,15 @@
         <v>47</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="45">
         <v>16</v>
@@ -1680,7 +1680,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="14">
         <v>22</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="30">
         <v>4</v>
@@ -1714,15 +1714,15 @@
         <v>47</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="30">
         <v>2</v>
@@ -1732,15 +1732,15 @@
         <v>47</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="30">
         <v>8</v>
@@ -1750,15 +1750,15 @@
         <v>47</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="47">
         <v>8</v>
@@ -1768,7 +1768,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="5">
         <v>22</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="32">
         <v>4</v>
@@ -1802,15 +1802,15 @@
         <v>47</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="32">
         <v>2</v>
@@ -1820,15 +1820,15 @@
         <v>47</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="32">
         <v>8</v>
@@ -1838,15 +1838,15 @@
         <v>47</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="32">
         <v>8</v>
@@ -1856,7 +1856,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="34">
         <v>46</v>
@@ -1877,10 +1877,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="35">
         <v>10</v>
@@ -1890,15 +1890,15 @@
         <v>47</v>
       </c>
       <c r="F27" s="71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="35">
         <v>4</v>
@@ -1908,15 +1908,15 @@
         <v>47</v>
       </c>
       <c r="F28" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="35">
         <v>16</v>
@@ -1926,15 +1926,15 @@
         <v>47</v>
       </c>
       <c r="F29" s="71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="35">
         <v>16</v>
@@ -1944,7 +1944,7 @@
         <v>47</v>
       </c>
       <c r="F30" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="7">
         <v>26</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="36">
         <v>8</v>
@@ -1978,15 +1978,15 @@
         <v>47</v>
       </c>
       <c r="F32" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="36">
         <v>2</v>
@@ -1996,15 +1996,15 @@
         <v>47</v>
       </c>
       <c r="F33" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="36">
         <v>8</v>
@@ -2014,15 +2014,15 @@
         <v>47</v>
       </c>
       <c r="F34" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="36">
         <v>8</v>
@@ -2032,13 +2032,13 @@
         <v>47</v>
       </c>
       <c r="F35" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="38">
         <v>42</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="39">
         <v>8</v>
@@ -2064,15 +2064,15 @@
         <v>47</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="39">
         <v>2</v>
@@ -2082,15 +2082,15 @@
         <v>47</v>
       </c>
       <c r="F38" s="75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="39">
         <v>16</v>
@@ -2100,15 +2100,15 @@
         <v>47</v>
       </c>
       <c r="F39" s="75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="39">
         <v>16</v>
@@ -2118,7 +2118,7 @@
         <v>47</v>
       </c>
       <c r="F40" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2126,87 +2126,87 @@
         <v>11</v>
       </c>
       <c r="B41" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" s="76">
         <v>40</v>
       </c>
       <c r="D41" s="76"/>
       <c r="E41" s="76" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F41" s="49"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="77">
         <v>4</v>
       </c>
       <c r="D42" s="77"/>
       <c r="E42" s="77" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" s="77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="77">
         <v>4</v>
       </c>
       <c r="D43" s="77"/>
       <c r="E43" s="77" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B44" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="77">
         <v>16</v>
       </c>
       <c r="D44" s="77"/>
       <c r="E44" s="77" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="77">
         <v>16</v>
       </c>
       <c r="D45" s="77"/>
       <c r="E45" s="77" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2214,51 +2214,51 @@
         <v>12</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" s="81">
         <v>16</v>
       </c>
       <c r="D46" s="81"/>
       <c r="E46" s="81" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F46" s="82"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" s="83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C47" s="83">
         <v>8</v>
       </c>
       <c r="D47" s="83"/>
       <c r="E47" s="83" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F47" s="84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C48" s="85">
         <v>8</v>
       </c>
       <c r="D48" s="85"/>
       <c r="E48" s="85" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F48" s="86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2491,7 +2491,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,13 +2527,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>99</v>
-      </c>
       <c r="D5" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,13 +2541,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,13 +2555,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,11 +2569,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,13 +2581,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>104</v>
-      </c>
       <c r="D9" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,13 +2595,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,13 +2609,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>113</v>
-      </c>
       <c r="D11" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,13 +2623,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="87" t="s">
-        <v>110</v>
-      </c>
       <c r="D12" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,13 +2637,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="87" t="s">
-        <v>115</v>
-      </c>
       <c r="D13" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,13 +2651,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>153</v>
-      </c>
       <c r="D14" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="173">
   <si>
     <t>Snabb översikt över produktionen</t>
   </si>
@@ -494,6 +494,57 @@
   </si>
   <si>
     <t>ongoing</t>
+  </si>
+  <si>
+    <t>Listningen</t>
+  </si>
+  <si>
+    <t>Visa bara title stort sedan estimat, deadline, start och end date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likadant i board </t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Bugg och Felkontroller</t>
+  </si>
+  <si>
+    <t>Listningen (LAYOUT)</t>
+  </si>
+  <si>
+    <t>Layout på boards</t>
+  </si>
+  <si>
+    <t>Kodgransning, namnkonvention och kommentarer</t>
+  </si>
+  <si>
+    <t>Dokumenatation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robusta upp koden. </t>
+  </si>
+  <si>
+    <t>Skriva ner vad vi gjort och hur planen är att gå vidare med det.</t>
+  </si>
+  <si>
+    <t>Göra den mer effektiv, ta bort onödig kod osv,</t>
+  </si>
+  <si>
+    <t>Radera Task på board</t>
+  </si>
+  <si>
+    <t>Raderas endast från board</t>
+  </si>
+  <si>
+    <t>Se till att det blir mer struktur i projektet</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Todo</t>
   </si>
 </sst>
 </file>
@@ -724,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -865,6 +916,126 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -891,7 +1062,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -980,6 +1151,16 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="5" xfId="20" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="15" xfId="20" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="16" xfId="20" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="12" xfId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="13" xfId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="16" xfId="17" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="20% - Dekorfärg1" xfId="12" builtinId="30"/>
@@ -1427,17 +1608,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F48"/>
+  <dimension ref="A2:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="83.5703125" bestFit="1" customWidth="1"/>
@@ -2259,6 +2440,162 @@
       </c>
       <c r="F48" s="86" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="93"/>
+      <c r="B54" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="94">
+        <v>16</v>
+      </c>
+      <c r="D54" s="94">
+        <v>1</v>
+      </c>
+      <c r="E54" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="95"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="91"/>
+      <c r="B55" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="87">
+        <v>16</v>
+      </c>
+      <c r="D55" s="87">
+        <v>5</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="92"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="91"/>
+      <c r="B56" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="87">
+        <v>8</v>
+      </c>
+      <c r="D56" s="87">
+        <v>6</v>
+      </c>
+      <c r="E56" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="91"/>
+      <c r="B57" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="87">
+        <v>8</v>
+      </c>
+      <c r="D57" s="87">
+        <v>7</v>
+      </c>
+      <c r="E57" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="96"/>
+      <c r="B58" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="23">
+        <v>16</v>
+      </c>
+      <c r="D58" s="23">
+        <v>3</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="91"/>
+      <c r="B59" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="87">
+        <v>16</v>
+      </c>
+      <c r="D59" s="87">
+        <v>4</v>
+      </c>
+      <c r="E59" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" s="92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="91"/>
+      <c r="B60" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="87">
+        <v>16</v>
+      </c>
+      <c r="D60" s="87">
+        <v>2</v>
+      </c>
+      <c r="E60" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" s="92" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="88"/>
+      <c r="B61" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="89">
+        <v>8</v>
+      </c>
+      <c r="D61" s="89">
+        <v>7</v>
+      </c>
+      <c r="E61" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="90" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
